--- a/data/trans_dic/P9_4-Urba-trans_dic.xlsx
+++ b/data/trans_dic/P9_4-Urba-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -497,7 +498,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -521,7 +522,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que no posee ni teléfono móvil ni ordenador ni portátil en su vivienda actual</t>
+          <t>Población que no posee ni teléfono móvil ni ordenador ni portátil en su vivienda actual (tasa de respuesta: 100,0%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -601,17 +602,17 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,31%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,31%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,61%</t>
+          <t>0,53%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
@@ -621,12 +622,12 @@
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,47%</t>
+          <t>0,29%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,46%</t>
+          <t>0,32%</t>
         </is>
       </c>
     </row>
@@ -639,32 +640,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,65</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,66</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,18</t>
+          <t>0,0; 2,95</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,08</t>
+          <t>0,0; 3,18</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0,14; 1,31</t>
+          <t>0,0; 1,67</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0,14; 1,26</t>
+          <t>0,0; 1,77</t>
         </is>
       </c>
     </row>
@@ -719,32 +720,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,88</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,88</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,72</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,72</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,4</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,4</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -799,32 +800,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0; 3,61</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0; 3,61</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0; 2,95</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0; 2,95</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0; 1,64</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0; 1,64</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -841,32 +842,32 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>0,27%</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>0,29%</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>0,14%</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
           <t>0,15%</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>0,15%</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>0,31%</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>0,29%</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>0,23%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>0,22%</t>
         </is>
       </c>
     </row>
@@ -879,32 +880,39 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 0,76</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 0,76</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,05</t>
+          <t>0,0; 1,16</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 0,97</t>
+          <t>0,0; 1,24</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0,07; 0,64</t>
+          <t>0,0; 0,72</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0,07; 0,61</t>
+          <t>0,0; 0,78</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
@@ -921,4 +929,595 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que no posee ni teléfono móvil ni ordenador ni portátil en su vivienda actual (tasa de respuesta: 100,0%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Urbano</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>2322</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>2963</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>2322</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>2963</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>0; 12846</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>0; 16198</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>0; 13339</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>0; 16612</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Intermedio</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Rural</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>2322</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>2963</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>2322</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>2963</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>0; 10059</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>0; 12816</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>0; 11768</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>0; 15038</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>